--- a/pixar/files/pixar_data_clean.xlsx
+++ b/pixar/files/pixar_data_clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timothylusk/Desktop/FINAL_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e10821b00853d02/GitHub/data/pixar/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2125C9-0829-9D4B-A9EF-600571A4CB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64000" yWindow="880" windowWidth="41120" windowHeight="24000" firstSheet="3" activeTab="3" xr2:uid="{C631BFE2-B680-354B-82FB-5B0F67CBFD48}"/>
+    <workbookView xWindow="57600" yWindow="860" windowWidth="34200" windowHeight="21380" firstSheet="3" activeTab="3" xr2:uid="{C631BFE2-B680-354B-82FB-5B0F67CBFD48}"/>
   </bookViews>
   <sheets>
     <sheet name="STUDIO" sheetId="3" r:id="rId1"/>
@@ -540,7 +540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -697,7 +697,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1806,7 +1805,7 @@
                   <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+              <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -2227,7 +2226,7 @@
                         <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+                    <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -2272,7 +2271,7 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
-          <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+          <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -2582,7 +2581,7 @@
                         <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+                    <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -2627,7 +2626,7 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
-          <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+          <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -3053,7 +3052,7 @@
                         <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+                    <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -3098,7 +3097,7 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
-          <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+          <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -8214,7 +8213,7 @@
                         <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+                    <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -8254,7 +8253,7 @@
                   <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+              <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -8289,7 +8288,7 @@
     <a:p>
       <a:pPr>
         <a:defRPr b="0" i="0">
-          <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+          <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -16406,7 +16405,7 @@
                         <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+                    <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -16451,7 +16450,7 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
-          <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+          <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -17933,7 +17932,7 @@
                         <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+                    <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -17978,7 +17977,7 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
-          <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+          <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -18366,7 +18365,7 @@
                         <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+                    <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -18411,7 +18410,7 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
-          <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+          <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -19242,7 +19241,7 @@
                         <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+                    <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -19282,7 +19281,7 @@
                   <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+              <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -19317,7 +19316,7 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
-          <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+          <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -19743,7 +19742,7 @@
                   <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+              <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -19778,7 +19777,7 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
-          <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+          <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -20858,7 +20857,7 @@
                         <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+                    <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -20898,7 +20897,7 @@
                   <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+              <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -20927,7 +20926,7 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
-          <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+          <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -21705,7 +21704,7 @@
                         <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+                    <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -21745,7 +21744,7 @@
                   <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+              <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -21780,7 +21779,7 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
-          <a:latin typeface="Gotham Medium" panose="02000604030000020004" pitchFamily="2" charset="0"/>
+          <a:latin typeface="Gotham-MediumItalic" panose="02000604030000020004" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -40232,9 +40231,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -40272,7 +40271,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -40378,7 +40377,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -40520,7 +40519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -42824,1800 +42823,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9F6780-9422-054D-9366-C98C86A13FDF}">
-  <dimension ref="A1:AF155"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A27" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="66"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="66"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="66"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="66"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="66"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="66"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="66"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="66"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="66"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="66"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="66"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="66"/>
-    </row>
-    <row r="46" spans="26:32" x14ac:dyDescent="0.2">
-      <c r="Z46" s="66"/>
-      <c r="AA46" s="66"/>
-      <c r="AB46" s="66"/>
-      <c r="AC46" s="66"/>
-      <c r="AD46" s="66"/>
-      <c r="AE46" s="66"/>
-      <c r="AF46" s="66"/>
-    </row>
-    <row r="47" spans="26:32" x14ac:dyDescent="0.2">
-      <c r="Z47" s="66"/>
-      <c r="AA47" s="66"/>
-      <c r="AB47" s="66"/>
-      <c r="AC47" s="66"/>
-      <c r="AD47" s="66"/>
-      <c r="AE47" s="66"/>
-      <c r="AF47" s="66"/>
-    </row>
-    <row r="48" spans="26:32" x14ac:dyDescent="0.2">
-      <c r="Z48" s="66"/>
-      <c r="AA48" s="66"/>
-      <c r="AB48" s="66"/>
-      <c r="AC48" s="66"/>
-      <c r="AD48" s="66"/>
-      <c r="AE48" s="66"/>
-      <c r="AF48" s="66"/>
-    </row>
-    <row r="49" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="Z49" s="66"/>
-      <c r="AA49" s="66"/>
-      <c r="AB49" s="66"/>
-      <c r="AC49" s="66"/>
-      <c r="AD49" s="66"/>
-      <c r="AE49" s="66"/>
-      <c r="AF49" s="66"/>
-    </row>
-    <row r="50" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="Z50" s="66"/>
-      <c r="AA50" s="66"/>
-      <c r="AB50" s="66"/>
-      <c r="AC50" s="66"/>
-      <c r="AD50" s="66"/>
-      <c r="AE50" s="66"/>
-      <c r="AF50" s="66"/>
-    </row>
-    <row r="51" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="Z51" s="66"/>
-      <c r="AA51" s="66"/>
-      <c r="AB51" s="66"/>
-      <c r="AC51" s="66"/>
-      <c r="AD51" s="66"/>
-      <c r="AE51" s="66"/>
-      <c r="AF51" s="66"/>
-    </row>
-    <row r="52" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="Z52" s="66"/>
-      <c r="AA52" s="66"/>
-      <c r="AB52" s="66"/>
-      <c r="AC52" s="66"/>
-      <c r="AD52" s="66"/>
-      <c r="AE52" s="66"/>
-      <c r="AF52" s="66"/>
-    </row>
-    <row r="53" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="Z53" s="66"/>
-      <c r="AA53" s="66"/>
-      <c r="AB53" s="66"/>
-      <c r="AC53" s="66"/>
-      <c r="AD53" s="66"/>
-      <c r="AE53" s="66"/>
-      <c r="AF53" s="66"/>
-    </row>
-    <row r="54" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="Z54" s="66"/>
-      <c r="AA54" s="66"/>
-      <c r="AB54" s="66"/>
-      <c r="AC54" s="66"/>
-      <c r="AD54" s="66"/>
-      <c r="AE54" s="66"/>
-      <c r="AF54" s="66"/>
-    </row>
-    <row r="55" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M55" s="66"/>
-      <c r="N55" s="66"/>
-      <c r="O55" s="66"/>
-      <c r="P55" s="66"/>
-      <c r="Q55" s="66"/>
-      <c r="R55" s="66"/>
-      <c r="Z55" s="66"/>
-      <c r="AA55" s="66"/>
-      <c r="AB55" s="66"/>
-      <c r="AC55" s="66"/>
-      <c r="AD55" s="66"/>
-      <c r="AE55" s="66"/>
-      <c r="AF55" s="66"/>
-    </row>
-    <row r="56" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M56" s="66"/>
-      <c r="N56" s="66"/>
-      <c r="O56" s="66"/>
-      <c r="P56" s="66"/>
-      <c r="Q56" s="66"/>
-      <c r="R56" s="66"/>
-      <c r="Z56" s="66"/>
-      <c r="AA56" s="66"/>
-      <c r="AB56" s="66"/>
-      <c r="AC56" s="66"/>
-      <c r="AD56" s="66"/>
-      <c r="AE56" s="66"/>
-      <c r="AF56" s="66"/>
-    </row>
-    <row r="57" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M57" s="66"/>
-      <c r="N57" s="66"/>
-      <c r="O57" s="66"/>
-      <c r="P57" s="66"/>
-      <c r="Q57" s="66"/>
-      <c r="R57" s="66"/>
-      <c r="Z57" s="66"/>
-      <c r="AA57" s="66"/>
-      <c r="AB57" s="66"/>
-      <c r="AC57" s="66"/>
-      <c r="AD57" s="66"/>
-      <c r="AE57" s="66"/>
-      <c r="AF57" s="66"/>
-    </row>
-    <row r="58" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M58" s="66"/>
-      <c r="N58" s="66"/>
-      <c r="O58" s="66"/>
-      <c r="P58" s="66"/>
-      <c r="Q58" s="66"/>
-      <c r="R58" s="66"/>
-      <c r="Z58" s="66"/>
-      <c r="AA58" s="66"/>
-      <c r="AB58" s="66"/>
-      <c r="AC58" s="66"/>
-      <c r="AD58" s="66"/>
-      <c r="AE58" s="66"/>
-      <c r="AF58" s="66"/>
-    </row>
-    <row r="59" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M59" s="66"/>
-      <c r="N59" s="66"/>
-      <c r="O59" s="66"/>
-      <c r="P59" s="66"/>
-      <c r="Q59" s="66"/>
-      <c r="R59" s="66"/>
-      <c r="Z59" s="66"/>
-      <c r="AA59" s="66"/>
-      <c r="AB59" s="66"/>
-      <c r="AC59" s="66"/>
-      <c r="AD59" s="66"/>
-      <c r="AE59" s="66"/>
-      <c r="AF59" s="66"/>
-    </row>
-    <row r="60" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M60" s="66"/>
-      <c r="N60" s="66"/>
-      <c r="O60" s="66"/>
-      <c r="P60" s="66"/>
-      <c r="Q60" s="66"/>
-      <c r="R60" s="66"/>
-      <c r="Z60" s="66"/>
-      <c r="AA60" s="66"/>
-      <c r="AB60" s="66"/>
-      <c r="AC60" s="66"/>
-      <c r="AD60" s="66"/>
-      <c r="AE60" s="66"/>
-      <c r="AF60" s="66"/>
-    </row>
-    <row r="61" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M61" s="66"/>
-      <c r="N61" s="66"/>
-      <c r="O61" s="66"/>
-      <c r="P61" s="66"/>
-      <c r="Q61" s="66"/>
-      <c r="R61" s="66"/>
-      <c r="Z61" s="66"/>
-      <c r="AA61" s="66"/>
-      <c r="AB61" s="66"/>
-      <c r="AC61" s="66"/>
-      <c r="AD61" s="66"/>
-      <c r="AE61" s="66"/>
-      <c r="AF61" s="66"/>
-    </row>
-    <row r="62" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M62" s="66"/>
-      <c r="N62" s="66"/>
-      <c r="O62" s="66"/>
-      <c r="P62" s="66"/>
-      <c r="Q62" s="66"/>
-      <c r="R62" s="66"/>
-      <c r="Z62" s="66"/>
-      <c r="AA62" s="66"/>
-      <c r="AB62" s="66"/>
-      <c r="AC62" s="66"/>
-      <c r="AD62" s="66"/>
-      <c r="AE62" s="66"/>
-      <c r="AF62" s="66"/>
-    </row>
-    <row r="63" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M63" s="66"/>
-      <c r="N63" s="66"/>
-      <c r="O63" s="66"/>
-      <c r="P63" s="66"/>
-      <c r="Q63" s="66"/>
-      <c r="R63" s="66"/>
-      <c r="Z63" s="66"/>
-      <c r="AA63" s="66"/>
-      <c r="AB63" s="66"/>
-      <c r="AC63" s="66"/>
-      <c r="AD63" s="66"/>
-      <c r="AE63" s="66"/>
-      <c r="AF63" s="66"/>
-    </row>
-    <row r="64" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M64" s="66"/>
-      <c r="N64" s="66"/>
-      <c r="O64" s="66"/>
-      <c r="P64" s="66"/>
-      <c r="Q64" s="66"/>
-      <c r="R64" s="66"/>
-      <c r="Z64" s="66"/>
-      <c r="AA64" s="66"/>
-      <c r="AB64" s="66"/>
-      <c r="AC64" s="66"/>
-      <c r="AD64" s="66"/>
-      <c r="AE64" s="66"/>
-      <c r="AF64" s="66"/>
-    </row>
-    <row r="65" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M65" s="66"/>
-      <c r="N65" s="66"/>
-      <c r="O65" s="66"/>
-      <c r="P65" s="66"/>
-      <c r="Q65" s="66"/>
-      <c r="R65" s="66"/>
-      <c r="Z65" s="66"/>
-      <c r="AA65" s="66"/>
-      <c r="AB65" s="66"/>
-      <c r="AC65" s="66"/>
-      <c r="AD65" s="66"/>
-      <c r="AE65" s="66"/>
-      <c r="AF65" s="66"/>
-    </row>
-    <row r="66" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M66" s="66"/>
-      <c r="N66" s="66"/>
-      <c r="O66" s="66"/>
-      <c r="P66" s="66"/>
-      <c r="Q66" s="66"/>
-      <c r="R66" s="66"/>
-      <c r="Z66" s="66"/>
-      <c r="AA66" s="66"/>
-      <c r="AB66" s="66"/>
-      <c r="AC66" s="66"/>
-      <c r="AD66" s="66"/>
-      <c r="AE66" s="66"/>
-      <c r="AF66" s="66"/>
-    </row>
-    <row r="67" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M67" s="66"/>
-      <c r="N67" s="66"/>
-      <c r="O67" s="66"/>
-      <c r="P67" s="66"/>
-      <c r="Q67" s="66"/>
-      <c r="R67" s="66"/>
-      <c r="Z67" s="66"/>
-      <c r="AA67" s="66"/>
-      <c r="AB67" s="66"/>
-      <c r="AC67" s="66"/>
-      <c r="AD67" s="66"/>
-      <c r="AE67" s="66"/>
-      <c r="AF67" s="66"/>
-    </row>
-    <row r="68" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M68" s="66"/>
-      <c r="N68" s="66"/>
-      <c r="O68" s="66"/>
-      <c r="P68" s="66"/>
-      <c r="Q68" s="66"/>
-      <c r="R68" s="66"/>
-      <c r="Z68" s="66"/>
-      <c r="AA68" s="66"/>
-      <c r="AB68" s="66"/>
-      <c r="AC68" s="66"/>
-      <c r="AD68" s="66"/>
-      <c r="AE68" s="66"/>
-      <c r="AF68" s="66"/>
-    </row>
-    <row r="69" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M69" s="66"/>
-      <c r="N69" s="66"/>
-      <c r="O69" s="66"/>
-      <c r="P69" s="66"/>
-      <c r="Q69" s="66"/>
-      <c r="R69" s="66"/>
-      <c r="Z69" s="66"/>
-      <c r="AA69" s="66"/>
-      <c r="AB69" s="66"/>
-      <c r="AC69" s="66"/>
-      <c r="AD69" s="66"/>
-      <c r="AE69" s="66"/>
-      <c r="AF69" s="66"/>
-    </row>
-    <row r="70" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M70" s="66"/>
-      <c r="N70" s="66"/>
-      <c r="O70" s="66"/>
-      <c r="P70" s="66"/>
-      <c r="Q70" s="66"/>
-      <c r="R70" s="66"/>
-      <c r="Z70" s="66"/>
-      <c r="AA70" s="66"/>
-      <c r="AB70" s="66"/>
-      <c r="AC70" s="66"/>
-      <c r="AD70" s="66"/>
-      <c r="AE70" s="66"/>
-      <c r="AF70" s="66"/>
-    </row>
-    <row r="71" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M71" s="66"/>
-      <c r="N71" s="66"/>
-      <c r="O71" s="66"/>
-      <c r="P71" s="66"/>
-      <c r="Q71" s="66"/>
-      <c r="R71" s="66"/>
-      <c r="Z71" s="66"/>
-      <c r="AA71" s="66"/>
-      <c r="AB71" s="66"/>
-      <c r="AC71" s="66"/>
-      <c r="AD71" s="66"/>
-      <c r="AE71" s="66"/>
-      <c r="AF71" s="66"/>
-    </row>
-    <row r="72" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M72" s="66"/>
-      <c r="N72" s="66"/>
-      <c r="O72" s="66"/>
-      <c r="P72" s="66"/>
-      <c r="Q72" s="66"/>
-      <c r="R72" s="66"/>
-      <c r="Z72" s="66"/>
-      <c r="AA72" s="66"/>
-      <c r="AB72" s="66"/>
-      <c r="AC72" s="66"/>
-      <c r="AD72" s="66"/>
-      <c r="AE72" s="66"/>
-      <c r="AF72" s="66"/>
-    </row>
-    <row r="73" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M73" s="66"/>
-      <c r="N73" s="66"/>
-      <c r="O73" s="66"/>
-      <c r="P73" s="66"/>
-      <c r="Q73" s="66"/>
-      <c r="R73" s="66"/>
-      <c r="Z73" s="66"/>
-      <c r="AA73" s="66"/>
-      <c r="AB73" s="66"/>
-      <c r="AC73" s="66"/>
-      <c r="AD73" s="66"/>
-      <c r="AE73" s="66"/>
-      <c r="AF73" s="66"/>
-    </row>
-    <row r="74" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M74" s="66"/>
-      <c r="N74" s="66"/>
-      <c r="O74" s="66"/>
-      <c r="P74" s="66"/>
-      <c r="Q74" s="66"/>
-      <c r="R74" s="66"/>
-      <c r="Z74" s="66"/>
-      <c r="AA74" s="66"/>
-      <c r="AB74" s="66"/>
-      <c r="AC74" s="66"/>
-      <c r="AD74" s="66"/>
-      <c r="AE74" s="66"/>
-      <c r="AF74" s="66"/>
-    </row>
-    <row r="75" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M75" s="66"/>
-      <c r="N75" s="66"/>
-      <c r="O75" s="66"/>
-      <c r="P75" s="66"/>
-      <c r="Q75" s="66"/>
-      <c r="R75" s="66"/>
-      <c r="Z75" s="66"/>
-      <c r="AA75" s="66"/>
-      <c r="AB75" s="66"/>
-      <c r="AC75" s="66"/>
-      <c r="AD75" s="66"/>
-      <c r="AE75" s="66"/>
-      <c r="AF75" s="66"/>
-    </row>
-    <row r="76" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M76" s="66"/>
-      <c r="N76" s="66"/>
-      <c r="O76" s="66"/>
-      <c r="P76" s="66"/>
-      <c r="Q76" s="66"/>
-      <c r="R76" s="66"/>
-      <c r="Z76" s="66"/>
-      <c r="AA76" s="66"/>
-      <c r="AB76" s="66"/>
-      <c r="AC76" s="66"/>
-      <c r="AD76" s="66"/>
-      <c r="AE76" s="66"/>
-      <c r="AF76" s="66"/>
-    </row>
-    <row r="77" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M77" s="66"/>
-      <c r="N77" s="66"/>
-      <c r="O77" s="66"/>
-      <c r="P77" s="66"/>
-      <c r="Q77" s="66"/>
-      <c r="R77" s="66"/>
-      <c r="Z77" s="66"/>
-      <c r="AA77" s="66"/>
-      <c r="AB77" s="66"/>
-      <c r="AC77" s="66"/>
-      <c r="AD77" s="66"/>
-      <c r="AE77" s="66"/>
-      <c r="AF77" s="66"/>
-    </row>
-    <row r="78" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M78" s="66"/>
-      <c r="N78" s="66"/>
-      <c r="O78" s="66"/>
-      <c r="P78" s="66"/>
-      <c r="Q78" s="66"/>
-      <c r="R78" s="66"/>
-      <c r="Z78" s="66"/>
-      <c r="AA78" s="66"/>
-      <c r="AB78" s="66"/>
-      <c r="AC78" s="66"/>
-      <c r="AD78" s="66"/>
-      <c r="AE78" s="66"/>
-      <c r="AF78" s="66"/>
-    </row>
-    <row r="79" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M79" s="66"/>
-      <c r="N79" s="66"/>
-      <c r="O79" s="66"/>
-      <c r="P79" s="66"/>
-      <c r="Q79" s="66"/>
-      <c r="R79" s="66"/>
-      <c r="Z79" s="66"/>
-      <c r="AA79" s="66"/>
-      <c r="AB79" s="66"/>
-      <c r="AC79" s="66"/>
-      <c r="AD79" s="66"/>
-      <c r="AE79" s="66"/>
-      <c r="AF79" s="66"/>
-    </row>
-    <row r="80" spans="13:32" x14ac:dyDescent="0.2">
-      <c r="M80" s="66"/>
-      <c r="N80" s="66"/>
-      <c r="O80" s="66"/>
-      <c r="P80" s="66"/>
-      <c r="Q80" s="66"/>
-      <c r="R80" s="66"/>
-      <c r="Z80" s="66"/>
-      <c r="AA80" s="66"/>
-      <c r="AB80" s="66"/>
-      <c r="AC80" s="66"/>
-      <c r="AD80" s="66"/>
-      <c r="AE80" s="66"/>
-      <c r="AF80" s="66"/>
-    </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="M81" s="66"/>
-      <c r="N81" s="66"/>
-      <c r="O81" s="66"/>
-      <c r="P81" s="66"/>
-      <c r="Q81" s="66"/>
-      <c r="R81" s="66"/>
-      <c r="Z81" s="66"/>
-      <c r="AA81" s="66"/>
-      <c r="AB81" s="66"/>
-      <c r="AC81" s="66"/>
-      <c r="AD81" s="66"/>
-      <c r="AE81" s="66"/>
-      <c r="AF81" s="66"/>
-    </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="M82" s="66"/>
-      <c r="N82" s="66"/>
-      <c r="O82" s="66"/>
-      <c r="P82" s="66"/>
-      <c r="Q82" s="66"/>
-      <c r="R82" s="66"/>
-      <c r="Z82" s="66"/>
-      <c r="AA82" s="66"/>
-      <c r="AB82" s="66"/>
-      <c r="AC82" s="66"/>
-      <c r="AD82" s="66"/>
-      <c r="AE82" s="66"/>
-      <c r="AF82" s="66"/>
-    </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="M83" s="66"/>
-      <c r="N83" s="66"/>
-      <c r="O83" s="66"/>
-      <c r="P83" s="66"/>
-      <c r="Q83" s="66"/>
-      <c r="R83" s="66"/>
-      <c r="Z83" s="66"/>
-      <c r="AA83" s="66"/>
-      <c r="AB83" s="66"/>
-      <c r="AC83" s="66"/>
-      <c r="AD83" s="66"/>
-      <c r="AE83" s="66"/>
-      <c r="AF83" s="66"/>
-    </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="M84" s="66"/>
-      <c r="N84" s="66"/>
-      <c r="O84" s="66"/>
-      <c r="P84" s="66"/>
-      <c r="Q84" s="66"/>
-      <c r="R84" s="66"/>
-      <c r="Z84" s="66"/>
-      <c r="AA84" s="66"/>
-      <c r="AB84" s="66"/>
-      <c r="AC84" s="66"/>
-      <c r="AD84" s="66"/>
-      <c r="AE84" s="66"/>
-      <c r="AF84" s="66"/>
-    </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="Z85" s="66"/>
-      <c r="AA85" s="66"/>
-      <c r="AB85" s="66"/>
-      <c r="AC85" s="66"/>
-      <c r="AD85" s="66"/>
-      <c r="AE85" s="66"/>
-      <c r="AF85" s="66"/>
-    </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="Z86" s="66"/>
-      <c r="AA86" s="66"/>
-      <c r="AB86" s="66"/>
-      <c r="AC86" s="66"/>
-      <c r="AD86" s="66"/>
-      <c r="AE86" s="66"/>
-      <c r="AF86" s="66"/>
-    </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A87" s="66"/>
-      <c r="B87" s="66"/>
-      <c r="C87" s="66"/>
-      <c r="D87" s="66"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="Z87" s="66"/>
-      <c r="AA87" s="66"/>
-      <c r="AB87" s="66"/>
-      <c r="AC87" s="66"/>
-      <c r="AD87" s="66"/>
-      <c r="AE87" s="66"/>
-      <c r="AF87" s="66"/>
-    </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A88" s="66"/>
-      <c r="B88" s="66"/>
-      <c r="C88" s="66"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="66"/>
-      <c r="F88" s="66"/>
-      <c r="Z88" s="66"/>
-      <c r="AA88" s="66"/>
-      <c r="AB88" s="66"/>
-      <c r="AC88" s="66"/>
-      <c r="AD88" s="66"/>
-      <c r="AE88" s="66"/>
-      <c r="AF88" s="66"/>
-    </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A89" s="66"/>
-      <c r="B89" s="66"/>
-      <c r="C89" s="66"/>
-      <c r="D89" s="66"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="66"/>
-      <c r="Z89" s="66"/>
-      <c r="AA89" s="66"/>
-      <c r="AB89" s="66"/>
-      <c r="AC89" s="66"/>
-      <c r="AD89" s="66"/>
-      <c r="AE89" s="66"/>
-      <c r="AF89" s="66"/>
-    </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A90" s="66"/>
-      <c r="B90" s="66"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="66"/>
-      <c r="Z90" s="66"/>
-      <c r="AA90" s="66"/>
-      <c r="AB90" s="66"/>
-      <c r="AC90" s="66"/>
-      <c r="AD90" s="66"/>
-      <c r="AE90" s="66"/>
-      <c r="AF90" s="66"/>
-    </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A91" s="66"/>
-      <c r="B91" s="66"/>
-      <c r="C91" s="66"/>
-      <c r="D91" s="66"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="66"/>
-    </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A92" s="66"/>
-      <c r="B92" s="66"/>
-      <c r="C92" s="66"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="66"/>
-      <c r="F92" s="66"/>
-    </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A93" s="66"/>
-      <c r="B93" s="66"/>
-      <c r="C93" s="66"/>
-      <c r="D93" s="66"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="66"/>
-    </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A94" s="66"/>
-      <c r="B94" s="66"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="66"/>
-      <c r="F94" s="66"/>
-    </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A95" s="66"/>
-      <c r="B95" s="66"/>
-      <c r="C95" s="66"/>
-      <c r="D95" s="66"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="66"/>
-    </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A96" s="66"/>
-      <c r="B96" s="66"/>
-      <c r="C96" s="66"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="66"/>
-      <c r="F96" s="66"/>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A97" s="66"/>
-      <c r="B97" s="66"/>
-      <c r="C97" s="66"/>
-      <c r="D97" s="66"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="66"/>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A98" s="66"/>
-      <c r="B98" s="66"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="66"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A99" s="66"/>
-      <c r="B99" s="66"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="66"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="66"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A100" s="66"/>
-      <c r="B100" s="66"/>
-      <c r="C100" s="66"/>
-      <c r="D100" s="66"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="66"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A101" s="66"/>
-      <c r="B101" s="66"/>
-      <c r="C101" s="66"/>
-      <c r="D101" s="66"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A102" s="66"/>
-      <c r="B102" s="66"/>
-      <c r="C102" s="66"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="66"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A103" s="66"/>
-      <c r="B103" s="66"/>
-      <c r="C103" s="66"/>
-      <c r="D103" s="66"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="66"/>
-      <c r="M103" s="66"/>
-      <c r="N103" s="66"/>
-      <c r="O103" s="66"/>
-      <c r="P103" s="66"/>
-      <c r="Q103" s="66"/>
-      <c r="R103" s="66"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A104" s="66"/>
-      <c r="B104" s="66"/>
-      <c r="C104" s="66"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="66"/>
-      <c r="M104" s="66"/>
-      <c r="N104" s="66"/>
-      <c r="O104" s="66"/>
-      <c r="P104" s="66"/>
-      <c r="Q104" s="66"/>
-      <c r="R104" s="66"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A105" s="66"/>
-      <c r="B105" s="66"/>
-      <c r="C105" s="66"/>
-      <c r="D105" s="66"/>
-      <c r="E105" s="66"/>
-      <c r="F105" s="66"/>
-      <c r="M105" s="66"/>
-      <c r="N105" s="66"/>
-      <c r="O105" s="66"/>
-      <c r="P105" s="66"/>
-      <c r="Q105" s="66"/>
-      <c r="R105" s="66"/>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A106" s="66"/>
-      <c r="B106" s="66"/>
-      <c r="C106" s="66"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="66"/>
-      <c r="M106" s="66"/>
-      <c r="N106" s="66"/>
-      <c r="O106" s="66"/>
-      <c r="P106" s="66"/>
-      <c r="Q106" s="66"/>
-      <c r="R106" s="66"/>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A107" s="66"/>
-      <c r="B107" s="66"/>
-      <c r="C107" s="66"/>
-      <c r="D107" s="66"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="66"/>
-      <c r="M107" s="66"/>
-      <c r="N107" s="66"/>
-      <c r="O107" s="66"/>
-      <c r="P107" s="66"/>
-      <c r="Q107" s="66"/>
-      <c r="R107" s="66"/>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A108" s="66"/>
-      <c r="B108" s="66"/>
-      <c r="C108" s="66"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="66"/>
-      <c r="F108" s="66"/>
-      <c r="M108" s="66"/>
-      <c r="N108" s="66"/>
-      <c r="O108" s="66"/>
-      <c r="P108" s="66"/>
-      <c r="Q108" s="66"/>
-      <c r="R108" s="66"/>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A109" s="66"/>
-      <c r="B109" s="66"/>
-      <c r="C109" s="66"/>
-      <c r="D109" s="66"/>
-      <c r="E109" s="66"/>
-      <c r="F109" s="66"/>
-      <c r="M109" s="66"/>
-      <c r="N109" s="66"/>
-      <c r="O109" s="66"/>
-      <c r="P109" s="66"/>
-      <c r="Q109" s="66"/>
-      <c r="R109" s="66"/>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A110" s="66"/>
-      <c r="B110" s="66"/>
-      <c r="C110" s="66"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="66"/>
-      <c r="F110" s="66"/>
-      <c r="M110" s="66"/>
-      <c r="N110" s="66"/>
-      <c r="O110" s="66"/>
-      <c r="P110" s="66"/>
-      <c r="Q110" s="66"/>
-      <c r="R110" s="66"/>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A111" s="66"/>
-      <c r="B111" s="66"/>
-      <c r="C111" s="66"/>
-      <c r="D111" s="66"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="66"/>
-      <c r="M111" s="66"/>
-      <c r="N111" s="66"/>
-      <c r="O111" s="66"/>
-      <c r="P111" s="66"/>
-      <c r="Q111" s="66"/>
-      <c r="R111" s="66"/>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A112" s="66"/>
-      <c r="B112" s="66"/>
-      <c r="C112" s="66"/>
-      <c r="D112" s="66"/>
-      <c r="E112" s="66"/>
-      <c r="F112" s="66"/>
-      <c r="M112" s="66"/>
-      <c r="N112" s="66"/>
-      <c r="O112" s="66"/>
-      <c r="P112" s="66"/>
-      <c r="Q112" s="66"/>
-      <c r="R112" s="66"/>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A113" s="66"/>
-      <c r="B113" s="66"/>
-      <c r="C113" s="66"/>
-      <c r="D113" s="66"/>
-      <c r="E113" s="66"/>
-      <c r="F113" s="66"/>
-      <c r="M113" s="66"/>
-      <c r="N113" s="66"/>
-      <c r="O113" s="66"/>
-      <c r="P113" s="66"/>
-      <c r="Q113" s="66"/>
-      <c r="R113" s="66"/>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A114" s="66"/>
-      <c r="B114" s="66"/>
-      <c r="C114" s="66"/>
-      <c r="D114" s="66"/>
-      <c r="E114" s="66"/>
-      <c r="F114" s="66"/>
-      <c r="M114" s="66"/>
-      <c r="N114" s="66"/>
-      <c r="O114" s="66"/>
-      <c r="P114" s="66"/>
-      <c r="Q114" s="66"/>
-      <c r="R114" s="66"/>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A115" s="66"/>
-      <c r="B115" s="66"/>
-      <c r="C115" s="66"/>
-      <c r="D115" s="66"/>
-      <c r="E115" s="66"/>
-      <c r="F115" s="66"/>
-      <c r="M115" s="66"/>
-      <c r="N115" s="66"/>
-      <c r="O115" s="66"/>
-      <c r="P115" s="66"/>
-      <c r="Q115" s="66"/>
-      <c r="R115" s="66"/>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A116" s="66"/>
-      <c r="B116" s="66"/>
-      <c r="C116" s="66"/>
-      <c r="D116" s="66"/>
-      <c r="E116" s="66"/>
-      <c r="F116" s="66"/>
-      <c r="M116" s="66"/>
-      <c r="N116" s="66"/>
-      <c r="O116" s="66"/>
-      <c r="P116" s="66"/>
-      <c r="Q116" s="66"/>
-      <c r="R116" s="66"/>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A117" s="66"/>
-      <c r="B117" s="66"/>
-      <c r="C117" s="66"/>
-      <c r="D117" s="66"/>
-      <c r="E117" s="66"/>
-      <c r="F117" s="66"/>
-      <c r="M117" s="66"/>
-      <c r="N117" s="66"/>
-      <c r="O117" s="66"/>
-      <c r="P117" s="66"/>
-      <c r="Q117" s="66"/>
-      <c r="R117" s="66"/>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A118" s="66"/>
-      <c r="B118" s="66"/>
-      <c r="C118" s="66"/>
-      <c r="D118" s="66"/>
-      <c r="E118" s="66"/>
-      <c r="F118" s="66"/>
-      <c r="M118" s="66"/>
-      <c r="N118" s="66"/>
-      <c r="O118" s="66"/>
-      <c r="P118" s="66"/>
-      <c r="Q118" s="66"/>
-      <c r="R118" s="66"/>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A119" s="66"/>
-      <c r="B119" s="66"/>
-      <c r="C119" s="66"/>
-      <c r="D119" s="66"/>
-      <c r="E119" s="66"/>
-      <c r="F119" s="66"/>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A120" s="66"/>
-      <c r="B120" s="66"/>
-      <c r="C120" s="66"/>
-      <c r="D120" s="66"/>
-      <c r="E120" s="66"/>
-      <c r="F120" s="66"/>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A121" s="66"/>
-      <c r="B121" s="66"/>
-      <c r="C121" s="66"/>
-      <c r="D121" s="66"/>
-      <c r="E121" s="66"/>
-      <c r="F121" s="66"/>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A122" s="66"/>
-      <c r="B122" s="66"/>
-      <c r="C122" s="66"/>
-      <c r="D122" s="66"/>
-      <c r="E122" s="66"/>
-      <c r="F122" s="66"/>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A123" s="66"/>
-      <c r="B123" s="66"/>
-      <c r="C123" s="66"/>
-      <c r="D123" s="66"/>
-      <c r="E123" s="66"/>
-      <c r="F123" s="66"/>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A124" s="66"/>
-      <c r="B124" s="66"/>
-      <c r="C124" s="66"/>
-      <c r="D124" s="66"/>
-      <c r="E124" s="66"/>
-      <c r="F124" s="66"/>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A125" s="66"/>
-      <c r="B125" s="66"/>
-      <c r="C125" s="66"/>
-      <c r="D125" s="66"/>
-      <c r="E125" s="66"/>
-      <c r="F125" s="66"/>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A126" s="66"/>
-      <c r="B126" s="66"/>
-      <c r="C126" s="66"/>
-      <c r="D126" s="66"/>
-      <c r="E126" s="66"/>
-      <c r="F126" s="66"/>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A127" s="66"/>
-      <c r="B127" s="66"/>
-      <c r="C127" s="66"/>
-      <c r="D127" s="66"/>
-      <c r="E127" s="66"/>
-      <c r="F127" s="66"/>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A128" s="66"/>
-      <c r="B128" s="66"/>
-      <c r="C128" s="66"/>
-      <c r="D128" s="66"/>
-      <c r="E128" s="66"/>
-      <c r="F128" s="66"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="66"/>
-      <c r="B129" s="66"/>
-      <c r="C129" s="66"/>
-      <c r="D129" s="66"/>
-      <c r="E129" s="66"/>
-      <c r="F129" s="66"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="66"/>
-      <c r="B130" s="66"/>
-      <c r="C130" s="66"/>
-      <c r="D130" s="66"/>
-      <c r="E130" s="66"/>
-      <c r="F130" s="66"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="66"/>
-      <c r="B131" s="66"/>
-      <c r="C131" s="66"/>
-      <c r="D131" s="66"/>
-      <c r="E131" s="66"/>
-      <c r="F131" s="66"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="66"/>
-      <c r="B132" s="66"/>
-      <c r="C132" s="66"/>
-      <c r="D132" s="66"/>
-      <c r="E132" s="66"/>
-      <c r="F132" s="66"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="66"/>
-      <c r="B133" s="66"/>
-      <c r="C133" s="66"/>
-      <c r="D133" s="66"/>
-      <c r="E133" s="66"/>
-      <c r="F133" s="66"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="66"/>
-      <c r="B134" s="66"/>
-      <c r="C134" s="66"/>
-      <c r="D134" s="66"/>
-      <c r="E134" s="66"/>
-      <c r="F134" s="66"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="66"/>
-      <c r="B135" s="66"/>
-      <c r="C135" s="66"/>
-      <c r="D135" s="66"/>
-      <c r="E135" s="66"/>
-      <c r="F135" s="66"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="66"/>
-      <c r="B136" s="66"/>
-      <c r="C136" s="66"/>
-      <c r="D136" s="66"/>
-      <c r="E136" s="66"/>
-      <c r="F136" s="66"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="66"/>
-      <c r="B137" s="66"/>
-      <c r="C137" s="66"/>
-      <c r="D137" s="66"/>
-      <c r="E137" s="66"/>
-      <c r="F137" s="66"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="66"/>
-      <c r="B138" s="66"/>
-      <c r="C138" s="66"/>
-      <c r="D138" s="66"/>
-      <c r="E138" s="66"/>
-      <c r="F138" s="66"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="66"/>
-      <c r="B139" s="66"/>
-      <c r="C139" s="66"/>
-      <c r="D139" s="66"/>
-      <c r="E139" s="66"/>
-      <c r="F139" s="66"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="66"/>
-      <c r="B140" s="66"/>
-      <c r="C140" s="66"/>
-      <c r="D140" s="66"/>
-      <c r="E140" s="66"/>
-      <c r="F140" s="66"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="66"/>
-      <c r="B141" s="66"/>
-      <c r="C141" s="66"/>
-      <c r="D141" s="66"/>
-      <c r="E141" s="66"/>
-      <c r="F141" s="66"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="66"/>
-      <c r="B142" s="66"/>
-      <c r="C142" s="66"/>
-      <c r="D142" s="66"/>
-      <c r="E142" s="66"/>
-      <c r="F142" s="66"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="66"/>
-      <c r="B143" s="66"/>
-      <c r="C143" s="66"/>
-      <c r="D143" s="66"/>
-      <c r="E143" s="66"/>
-      <c r="F143" s="66"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="66"/>
-      <c r="B144" s="66"/>
-      <c r="C144" s="66"/>
-      <c r="D144" s="66"/>
-      <c r="E144" s="66"/>
-      <c r="F144" s="66"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="66"/>
-      <c r="B145" s="66"/>
-      <c r="C145" s="66"/>
-      <c r="D145" s="66"/>
-      <c r="E145" s="66"/>
-      <c r="F145" s="66"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="66"/>
-      <c r="B146" s="66"/>
-      <c r="C146" s="66"/>
-      <c r="D146" s="66"/>
-      <c r="E146" s="66"/>
-      <c r="F146" s="66"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="66"/>
-      <c r="B147" s="66"/>
-      <c r="C147" s="66"/>
-      <c r="D147" s="66"/>
-      <c r="E147" s="66"/>
-      <c r="F147" s="66"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="66"/>
-      <c r="B148" s="66"/>
-      <c r="C148" s="66"/>
-      <c r="D148" s="66"/>
-      <c r="E148" s="66"/>
-      <c r="F148" s="66"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="66"/>
-      <c r="B149" s="66"/>
-      <c r="C149" s="66"/>
-      <c r="D149" s="66"/>
-      <c r="E149" s="66"/>
-      <c r="F149" s="66"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="66"/>
-      <c r="B150" s="66"/>
-      <c r="C150" s="66"/>
-      <c r="D150" s="66"/>
-      <c r="E150" s="66"/>
-      <c r="F150" s="66"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="66"/>
-      <c r="B151" s="66"/>
-      <c r="C151" s="66"/>
-      <c r="D151" s="66"/>
-      <c r="E151" s="66"/>
-      <c r="F151" s="66"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="66"/>
-      <c r="B152" s="66"/>
-      <c r="C152" s="66"/>
-      <c r="D152" s="66"/>
-      <c r="E152" s="66"/>
-      <c r="F152" s="66"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="66"/>
-      <c r="B153" s="66"/>
-      <c r="C153" s="66"/>
-      <c r="D153" s="66"/>
-      <c r="E153" s="66"/>
-      <c r="F153" s="66"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="66"/>
-      <c r="B154" s="66"/>
-      <c r="C154" s="66"/>
-      <c r="D154" s="66"/>
-      <c r="E154" s="66"/>
-      <c r="F154" s="66"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="66"/>
-      <c r="B155" s="66"/>
-      <c r="C155" s="66"/>
-      <c r="D155" s="66"/>
-      <c r="E155" s="66"/>
-      <c r="F155" s="66"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -45165,7 +43378,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+      <selection activeCell="B1" sqref="B1:M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -47126,7 +45339,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
